--- a/assets/files/excel/2111.xlsx
+++ b/assets/files/excel/2111.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Бачило\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="yELog+0PiSW5ahUwv9Xs00MtpkUj34fO359f0qxXcLQ3Cmp6ExgQyFBncFld6U64VKQa5S7xkO7hCH7fzoFk8Q==" workbookSaltValue="vHPOnB069kJRjruZWJTUVg==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ihdnCu5ibKv8XvsAkNqCs+GTOKaWW3+t1O25xx870/eTf+ct25DKl+gbfi6AhYquI9Iwt5nez0/ZDSOflwVO8A==" workbookSaltValue="WohzRXwKhFb3yJMtOhKZSA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="766"/>
   </bookViews>
@@ -492,7 +492,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -649,6 +649,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -708,6 +711,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -1986,14 +1997,14 @@
       <c r="B3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -2002,14 +2013,14 @@
       <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="26"/>
@@ -2018,20 +2029,20 @@
       <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="50" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="25"/>
@@ -2042,18 +2053,18 @@
       <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2078,7 @@
       </c>
       <c r="F8" s="43"/>
     </row>
-    <row r="9" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
@@ -2075,7 +2086,7 @@
       <c r="C9" s="31">
         <v>5710.800000000002</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="31">
         <v>5.38</v>
       </c>
@@ -2089,7 +2100,7 @@
       <c r="C10" s="33">
         <v>6852.96</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="65"/>
       <c r="E10" s="33">
         <v>6.46</v>
       </c>
@@ -2109,7 +2120,6 @@
       <c r="B15" s="37"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="3q7Sz16HsmTc4EnV2ibp75Bu7lM1sCecswUda4c1f2fonPkLMPGMalMsru89xgNS2LFkSRZOlcHqZfuof5X19g==" saltValue="jjk3c9XlNPNtyJBU5zqsUg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="7">
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:A7"/>
@@ -2154,7 +2164,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,45 +2192,45 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" ht="45.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="58" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="20" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
@@ -2299,19 +2309,19 @@
         <v>125.99999999999818</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="2">
+      <c r="F11" s="46">
         <f>F8+F9+F10</f>
         <v>688.91759999999022</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="22" t="str">
-        <f>IFERROR(IF('Расход электроэнергии'!D11='Расход электроэнергии (решение)'!D11,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Расход электроэнергии'!D11-'Расход электроэнергии (решение)'!D11)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="22" t="str">
-        <f>IFERROR(IF('Расход электроэнергии'!F11='Расход электроэнергии (решение)'!F11,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS('Расход электроэнергии'!F11-'Расход электроэнергии (решение)'!F11)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
